--- a/04-summary/SEM_Results_Bootstrap_Final.xlsx
+++ b/04-summary/SEM_Results_Bootstrap_Final.xlsx
@@ -1356,13 +1356,13 @@
         <v>0.05</v>
       </c>
       <c r="D2">
-        <v>0.09622911527045207</v>
+        <v>0.104714685820386</v>
       </c>
       <c r="E2">
-        <v>0.519593263005228</v>
+        <v>0.4812877329777435</v>
       </c>
       <c r="F2">
-        <v>0.603347094662392</v>
+        <v>0.6306206172107621</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1376,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01710336983958166</v>
+        <v>0.01745845590782761</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0.05</v>
       </c>
       <c r="D4">
-        <v>0.08099281310822443</v>
+        <v>0.08541864769400788</v>
       </c>
       <c r="E4">
-        <v>0.6173387252591355</v>
+        <v>0.5885652661829963</v>
       </c>
       <c r="F4">
-        <v>0.5370113290546834</v>
+        <v>0.5565260855904645</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.4314057699306363</v>
+        <v>0.4236623930266921</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1432,13 +1432,13 @@
         <v>0.05</v>
       </c>
       <c r="D6">
-        <v>0.1168214499835427</v>
+        <v>28681.00208873681</v>
       </c>
       <c r="E6">
-        <v>0.4280035901507454</v>
+        <v>0.4116991351563536</v>
       </c>
       <c r="F6">
-        <v>0.668648506575658</v>
+        <v>0.6812302804846516</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1450,7 +1450,7 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0132841815218737</v>
+        <v>18615.95893574231</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1468,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.02988224676845006</v>
+        <v>0.02948741028843664</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.03628160663011368</v>
+        <v>25413.89847704016</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1504,7 +1504,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0290174165404106</v>
+        <v>0.02878501112254591</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03315859738627988</v>
+        <v>19941.06807984491</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1540,7 +1540,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03647134828715333</v>
+        <v>20399.88690193882</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1557,16 +1557,16 @@
         <v>20</v>
       </c>
       <c r="C13">
-        <v>0.4409514854252973</v>
+        <v>0.4184091521619657</v>
       </c>
       <c r="D13">
-        <v>0.6883937071516557</v>
+        <v>0.6952837454632008</v>
       </c>
       <c r="E13">
-        <v>0.640551302029136</v>
+        <v>0.6028039647972938</v>
       </c>
       <c r="F13">
-        <v>0.5218142476552363</v>
+        <v>0.5471063721865917</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1575,13 +1575,13 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>0.8521079402827334</v>
+        <v>0.8353461606553046</v>
       </c>
       <c r="D14">
-        <v>0.04570418668868859</v>
+        <v>0.04454098433873327</v>
       </c>
       <c r="E14">
-        <v>18.6439799501996</v>
+        <v>18.76197732001831</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1595,16 +1595,16 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>0.2792955348293479</v>
+        <v>0.2823126154883457</v>
       </c>
       <c r="D15">
-        <v>0.4558519924694843</v>
+        <v>0.4773728747534852</v>
       </c>
       <c r="E15">
-        <v>0.6126890733014221</v>
+        <v>0.5916753829928815</v>
       </c>
       <c r="F15">
-        <v>0.5400819487860296</v>
+        <v>0.5545685630850834</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1613,13 +1613,13 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>0.4383009644602986</v>
+        <v>0.4302513912009512</v>
       </c>
       <c r="D16">
-        <v>0.02286906457536949</v>
+        <v>0.02260967219907474</v>
       </c>
       <c r="E16">
-        <v>19.16567085621828</v>
+        <v>19.03915197133226</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1633,16 +1633,16 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>0.3507077689394906</v>
+        <v>0.3287046337776774</v>
       </c>
       <c r="D17">
-        <v>0.5314116965652513</v>
+        <v>0.5358778930666354</v>
       </c>
       <c r="E17">
-        <v>0.6599549298700235</v>
+        <v>0.6139719779625789</v>
       </c>
       <c r="F17">
-        <v>0.5092827525195203</v>
+        <v>0.5397518313636979</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1651,13 +1651,13 @@
         <v>17</v>
       </c>
       <c r="C18">
-        <v>0.4261196987713036</v>
+        <v>0.4544284040163827</v>
       </c>
       <c r="D18">
-        <v>0.02369180168386708</v>
+        <v>0.02463674996089992</v>
       </c>
       <c r="E18">
-        <v>17.98595583566292</v>
+        <v>18.45603946399072</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1680,16 +1680,16 @@
         <v>14</v>
       </c>
       <c r="C20">
-        <v>0.7538122605363977</v>
+        <v>0.7055444338750164</v>
       </c>
       <c r="D20">
-        <v>0.08767600046836874</v>
+        <v>0.09098042152392277</v>
       </c>
       <c r="E20">
-        <v>8.597703550582878</v>
+        <v>7.783174388227534</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>1.775606772724814E-12</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1709,16 +1709,16 @@
         <v>7</v>
       </c>
       <c r="C22">
-        <v>0.6931331747919142</v>
+        <v>0.6768664196062888</v>
       </c>
       <c r="D22">
-        <v>0.1275914850654437</v>
+        <v>22601.69655908498</v>
       </c>
       <c r="E22">
-        <v>5.43244068701734</v>
+        <v>5.104376973011274</v>
       </c>
       <c r="F22">
-        <v>5.558843341191277E-08</v>
+        <v>0.01001383244562255</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1732,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.00293340896725824</v>
+        <v>323555.1692692579</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1747,13 +1747,13 @@
         <v>8</v>
       </c>
       <c r="C24">
-        <v>0.6184205311137535</v>
+        <v>0.6480898599550798</v>
       </c>
       <c r="D24">
-        <v>0.0296509949554145</v>
+        <v>0.03107353039132629</v>
       </c>
       <c r="E24">
-        <v>20.8566536139108</v>
+        <v>20.85665361394209</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.002230297843674515</v>
+        <v>311695.084893132</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1785,13 +1785,13 @@
         <v>9</v>
       </c>
       <c r="C26">
-        <v>0.7433670233848606</v>
+        <v>0.7729020689655173</v>
       </c>
       <c r="D26">
-        <v>0.03564172072474681</v>
+        <v>0.0370578177711091</v>
       </c>
       <c r="E26">
-        <v>20.85665361402904</v>
+        <v>20.85665361405057</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -1808,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="D27">
-        <v>0.002980510837263933</v>
+        <v>242276.2090565847</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1823,13 +1823,13 @@
         <v>10</v>
       </c>
       <c r="C28">
-        <v>0.6118304927995776</v>
+        <v>0.5825898599550798</v>
       </c>
       <c r="D28">
-        <v>0.02933502680271149</v>
+        <v>0.02793304576659702</v>
       </c>
       <c r="E28">
-        <v>20.85665361390324</v>
+        <v>20.85665361386554</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1852,16 +1852,16 @@
         <v>12</v>
       </c>
       <c r="C30">
-        <v>0.583604835513278</v>
+        <v>0.6283049808429119</v>
       </c>
       <c r="D30">
-        <v>0.09951436865786459</v>
+        <v>0.1082990068220231</v>
       </c>
       <c r="E30">
-        <v>5.864528342775065</v>
+        <v>5.837603849065447</v>
       </c>
       <c r="F30">
-        <v>4.504111528191856E-09</v>
+        <v>2.645543353425595E-07</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1872,16 +1872,16 @@
         <v>19</v>
       </c>
       <c r="C31">
-        <v>0.677282868174147</v>
+        <v>0.6727748333408222</v>
       </c>
       <c r="D31">
-        <v>1.230802124097668</v>
+        <v>1.330768107645911</v>
       </c>
       <c r="E31">
-        <v>0.5502776237651765</v>
+        <v>0.5087421997845503</v>
       </c>
       <c r="F31">
-        <v>0.5821289693876595</v>
+        <v>0.6113476857972211</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1890,13 +1890,13 @@
         <v>13</v>
       </c>
       <c r="C32">
-        <v>0.6712703131193029</v>
+        <v>0.6843201638261329</v>
       </c>
       <c r="D32">
-        <v>0.05435899151217777</v>
+        <v>0.05727698479191907</v>
       </c>
       <c r="E32">
-        <v>12.34883676891932</v>
+        <v>11.9703836988331</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1910,16 +1910,16 @@
         <v>19</v>
       </c>
       <c r="C33">
-        <v>0.5150278280535302</v>
+        <v>0.4810571216898562</v>
       </c>
       <c r="D33">
-        <v>0.8804061526891597</v>
+        <v>0.8824827714820485</v>
       </c>
       <c r="E33">
-        <v>0.5849889014062619</v>
+        <v>0.5461156653988382</v>
       </c>
       <c r="F33">
-        <v>0.5585551794678816</v>
+        <v>0.5854663862115551</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1928,16 +1928,16 @@
         <v>20</v>
       </c>
       <c r="C34">
-        <v>0.5480952501969556</v>
+        <v>0.5174952884556145</v>
       </c>
       <c r="D34">
-        <v>0.8417608434546321</v>
+        <v>0.8449360564482192</v>
       </c>
       <c r="E34">
-        <v>0.6511294204977413</v>
+        <v>0.6139136247822412</v>
       </c>
       <c r="F34">
-        <v>0.5149629462821421</v>
+        <v>0.5397324742947003</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1946,16 +1946,16 @@
         <v>11</v>
       </c>
       <c r="C35">
-        <v>0.2265157038498378</v>
+        <v>0.2098603967232611</v>
       </c>
       <c r="D35">
-        <v>0.05375386590167691</v>
+        <v>91633.70697679762</v>
       </c>
       <c r="E35">
-        <v>4.213942570380922</v>
+        <v>3.769821249443459</v>
       </c>
       <c r="F35">
-        <v>2.509511213988347E-05</v>
+        <v>0.04096389017997658</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1964,16 +1964,16 @@
         <v>18</v>
       </c>
       <c r="C36">
-        <v>0.9014724534284591</v>
+        <v>0.8840371832474568</v>
       </c>
       <c r="D36">
-        <v>0.05842918231778275</v>
+        <v>1022.839649648841</v>
       </c>
       <c r="E36">
-        <v>15.42846258758391</v>
+        <v>15.55795830834677</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>0.009999889463137969</v>
       </c>
     </row>
   </sheetData>
@@ -2029,16 +2029,16 @@
         <v>28</v>
       </c>
       <c r="B2">
-        <v>0.5149629462821421</v>
+        <v>0.5397324742947003</v>
       </c>
       <c r="C2">
-        <v>0.5480952501969556</v>
+        <v>0.5174952884556145</v>
       </c>
       <c r="D2">
-        <v>0.8417608434546321</v>
+        <v>0.8449360564482192</v>
       </c>
       <c r="E2">
-        <v>0.6511294204977413</v>
+        <v>0.6139136247822412</v>
       </c>
       <c r="F2" t="s">
         <v>33</v>
@@ -2049,16 +2049,16 @@
         <v>29</v>
       </c>
       <c r="B3">
-        <v>2.509511213988347E-05</v>
+        <v>0.04096389017997658</v>
       </c>
       <c r="C3">
-        <v>0.2265157038498378</v>
+        <v>0.2098603967232611</v>
       </c>
       <c r="D3">
-        <v>0.05375386590167691</v>
+        <v>91633.70697679762</v>
       </c>
       <c r="E3">
-        <v>4.213942570380922</v>
+        <v>3.769821249443459</v>
       </c>
       <c r="F3" t="s">
         <v>34</v>
@@ -2075,7 +2075,7 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0290174165404106</v>
+        <v>0.02878501112254591</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2089,16 +2089,16 @@
         <v>31</v>
       </c>
       <c r="B5">
-        <v>0.5585551794678816</v>
+        <v>0.5854663862115551</v>
       </c>
       <c r="C5">
-        <v>0.5150278280535302</v>
+        <v>0.4810571216898562</v>
       </c>
       <c r="D5">
-        <v>0.8804061526891597</v>
+        <v>0.8824827714820485</v>
       </c>
       <c r="E5">
-        <v>0.5849889014062619</v>
+        <v>0.5461156653988382</v>
       </c>
       <c r="F5" t="s">
         <v>33</v>
@@ -2115,7 +2115,7 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.4314057699306363</v>
+        <v>0.4236623930266921</v>
       </c>
       <c r="E6">
         <v>0</v>
